--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3650.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3650.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.42214433947325</v>
+        <v>1.936773538589478</v>
       </c>
       <c r="B1">
-        <v>1.553491562630661</v>
+        <v>2.014461278915405</v>
       </c>
       <c r="C1">
-        <v>1.761835267005699</v>
+        <v>1.915081739425659</v>
       </c>
       <c r="D1">
-        <v>2.788293568793609</v>
+        <v>1.050179004669189</v>
       </c>
       <c r="E1">
-        <v>7.326807137187909</v>
+        <v>0.7183305025100708</v>
       </c>
     </row>
   </sheetData>
